--- a/Sprint 1/Ceremonias/Sprint planning/Links Ceremonias.xlsx
+++ b/Sprint 1/Ceremonias/Sprint planning/Links Ceremonias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inde\Documents\GitHub\mcds-2238280-proyecto\Sprint 1\Ceremonias\Sprint planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00E715-3F6E-4A1D-B0DA-43439AD29631}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B8E61F-A9BF-48B9-80BF-D788BC76BCD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -61,13 +61,16 @@
   </si>
   <si>
     <t>Actividades Sprint 1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pBGbv_AqsK4nDi4WxlJ8SGFme-wF8RWM/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +82,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,12 +116,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -122,6 +133,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,13 +431,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -468,7 +480,7 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -477,34 +489,41 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>44312</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
@@ -512,12 +531,12 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{E812322F-951D-4366-8259-383437031ADA}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{40C338AD-D18E-420F-8DF1-606649E285EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Sprint 1/Ceremonias/Sprint planning/Links Ceremonias.xlsx
+++ b/Sprint 1/Ceremonias/Sprint planning/Links Ceremonias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inde\Documents\GitHub\mcds-2238280-proyecto\Sprint 1\Ceremonias\Sprint planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B8E61F-A9BF-48B9-80BF-D788BC76BCD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35078178-5D82-40BF-9A84-42B811B2D0F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Juan Carlos Rojas Buitrago</t>
   </si>
   <si>
-    <t>Yaneth Mejia</t>
-  </si>
-  <si>
     <t>Link Reunión</t>
   </si>
   <si>
@@ -64,13 +61,19 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1pBGbv_AqsK4nDi4WxlJ8SGFme-wF8RWM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Yaneth Mejía Rendon</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pKTFI8EGziGN2_UBOYa2Fwl9k36OQIIc/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,14 +85,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,10 +113,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -130,10 +131,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -415,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,41 +450,41 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>44305</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -495,22 +492,22 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>44312</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
         <v>7</v>
@@ -518,10 +515,46 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E8" s="6"/>
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44314</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="B6:B7"/>
@@ -535,8 +568,9 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{E812322F-951D-4366-8259-383437031ADA}"/>
     <hyperlink ref="E6" r:id="rId2" xr:uid="{40C338AD-D18E-420F-8DF1-606649E285EE}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{6CCAB225-A683-4FD8-A0DB-928E471E4117}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>